--- a/src/main/resources/xlsx/dr/dr_online_template.xlsx
+++ b/src/main/resources/xlsx/dr/dr_online_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip\src\main\resources\xlsx\dr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5BE1A5-1A0C-4C16-9D20-3A7D72771FDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA77DC-FBB6-4FE9-9D38-829529A8D8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1515" windowWidth="17865" windowHeight="10920" xr2:uid="{FDD6493B-6864-4B1C-A687-EE9B17B17B01}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="11355" xr2:uid="{FDD6493B-6864-4B1C-A687-EE9B17B17B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得票比率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐职务：post（headcount名）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,11 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共发出推荐票pubcount张，参加推荐共finishcount人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京师范大学干部民主推荐结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +485,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.85" customHeight="1"/>
@@ -504,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -512,17 +508,15 @@
     </row>
     <row r="2" spans="1:4" ht="20.85" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.85" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -538,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.85" customHeight="1">

--- a/src/main/resources/xlsx/dr/dr_online_template.xlsx
+++ b/src/main/resources/xlsx/dr/dr_online_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\dr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA77DC-FBB6-4FE9-9D38-829529A8D8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="11355" xr2:uid="{FDD6493B-6864-4B1C-A687-EE9B17B17B01}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,22 +50,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推荐日期：    年  月  日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京师范大学干部民主推荐结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school干部民主推荐结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐日期：date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -481,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC23077-BA79-45F0-9DC1-B8DC415DB1CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.85" customHeight="1"/>
@@ -511,8 +510,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.85" customHeight="1">
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.85" customHeight="1">
@@ -550,8 +550,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/dr/dr_online_template.xlsx
+++ b/src/main/resources/xlsx/dr/dr_online_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\dr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F498FC2-99C1-4CD8-92B2-CED1648980E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="11355"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -65,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -480,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.85" customHeight="1"/>
@@ -506,9 +502,7 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="20.85" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
@@ -516,10 +510,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.85" customHeight="1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20.85" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -541,17 +536,11 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="20.85" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
